--- a/data/trans_bre/P07_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P07_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.965745592497578</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7333316548187058</v>
+        <v>0.7333316548187113</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4357071430018119</v>
@@ -649,7 +649,7 @@
         <v>0.2509485058013337</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.05598111025606117</v>
+        <v>0.0559811102560616</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4036678395927153</v>
+        <v>-0.5196700704357259</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.63781581990937</v>
+        <v>-5.183503227244407</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.443618840816106</v>
+        <v>-2.187034335954773</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.168654327337685</v>
+        <v>-3.00299756284675</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02618477964429718</v>
+        <v>-0.04564144399225134</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4336772891845884</v>
+        <v>-0.4060061931239585</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2821921424953068</v>
+        <v>-0.2358311751299257</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2057105062871636</v>
+        <v>-0.2068059951663204</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.11129688626992</v>
+        <v>10.47319128579483</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.916397187688302</v>
+        <v>3.987333506202837</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.980363800075166</v>
+        <v>6.642277259770736</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.961549771509267</v>
+        <v>4.391566408527722</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.105325192396698</v>
+        <v>1.089517770532638</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4623874107697896</v>
+        <v>0.4782658353399576</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9597809014787326</v>
+        <v>1.130127002355135</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4480756096494286</v>
+        <v>0.4001364204840849</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.4503227258637862</v>
+        <v>-0.9321876042024774</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.031103667477216</v>
+        <v>-1.987323226996952</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.736259400713788</v>
+        <v>-2.913849878164775</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.732118068449078</v>
+        <v>-1.711075613816333</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.04983582964382166</v>
+        <v>-0.08457728303498925</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.16903616944481</v>
+        <v>-0.1596084249465964</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2102224211240982</v>
+        <v>-0.2145511514554113</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1218821199559194</v>
+        <v>-0.136957077023208</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.499553011911589</v>
+        <v>9.351503398519826</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.815931436541032</v>
+        <v>8.268831876543878</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.526458696345767</v>
+        <v>6.850667261127506</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.537688677935953</v>
+        <v>6.534736326555378</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.098360493034718</v>
+        <v>1.023317830810002</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9512248274426588</v>
+        <v>0.9311886182851153</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8622747982625566</v>
+        <v>0.7407200711148995</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.669496037508766</v>
+        <v>0.6810187828113226</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>9.887461721064494</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.395567221873778</v>
+        <v>7.39556722187378</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7266151590229455</v>
@@ -849,7 +849,7 @@
         <v>0.5656199872425353</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3619034884560296</v>
+        <v>0.3619034884560298</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.582076907839052</v>
+        <v>4.439380976441608</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.020440201522304</v>
+        <v>-4.678394401256755</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.243215585898179</v>
+        <v>1.942706681309117</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.089112122647953</v>
+        <v>1.517271406796707</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2590289083423693</v>
+        <v>0.2406823113854625</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.207455023573074</v>
+        <v>-0.1963627692579273</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09468583078034483</v>
+        <v>0.09379284132642415</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.04930433218274679</v>
+        <v>0.06815094806782424</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.60604869148712</v>
+        <v>19.71721392380811</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.320421376268687</v>
+        <v>8.416180089733572</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18.74376519849487</v>
+        <v>18.12876256049087</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.01641184254288</v>
+        <v>13.65566811397196</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.349869743526921</v>
+        <v>1.339599346810561</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4159911287941657</v>
+        <v>0.4101416210327201</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.179380577236138</v>
+        <v>1.154835282581416</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7733717574115537</v>
+        <v>0.7419527893296106</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.479603648798216</v>
+        <v>1.640421701114734</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.555105437106012</v>
+        <v>-2.46634364032387</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.045610751544603</v>
+        <v>-3.087347710072399</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.829213341843939</v>
+        <v>-4.022648501606071</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06412457853051134</v>
+        <v>0.0834002435111601</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1175807892903976</v>
+        <v>-0.113732424510022</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1439959798476156</v>
+        <v>-0.1486667814586795</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1633464527922149</v>
+        <v>-0.173263857547503</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.452045428796984</v>
+        <v>9.498848828575969</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.240120083494847</v>
+        <v>5.622098403418435</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.024746431564596</v>
+        <v>4.398360773559313</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.571034789823194</v>
+        <v>2.801869882076771</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5290585798856513</v>
+        <v>0.5431484443034051</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.283321997494019</v>
+        <v>0.3139696780040683</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2230530222015999</v>
+        <v>0.2495933364217862</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1314137855050456</v>
+        <v>0.1367231781565155</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>9.582604976690945</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13.01943030630192</v>
+        <v>13.01943030630193</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4398875216866555</v>
@@ -1049,7 +1049,7 @@
         <v>0.4393238048138464</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.6169055778680649</v>
+        <v>0.6169055778680657</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.18116708118189</v>
+        <v>3.549583927608418</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>13.21065270220746</v>
+        <v>13.12375048216451</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.08139486916503</v>
+        <v>4.362530085442115</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.629238919608692</v>
+        <v>8.271581656758459</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1458126744107893</v>
+        <v>0.1293945971424137</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.65794655874271</v>
+        <v>0.6270837977147123</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2137139324840502</v>
+        <v>0.1848022930844136</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3516377682577232</v>
+        <v>0.3542662094553332</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.13836407797714</v>
+        <v>16.00760888573732</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.60998545781037</v>
+        <v>22.65945624863832</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.39856436981554</v>
+        <v>14.3435383277202</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.22991649904536</v>
+        <v>16.92549407171136</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8015289127782966</v>
+        <v>0.8054942674693198</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.534762022134465</v>
+        <v>1.476369539836111</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7454434606462575</v>
+        <v>0.758870889207877</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.9383203635174574</v>
+        <v>0.9233484492001561</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>8.415756276573841</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>5.691533636145482</v>
+        <v>5.691533636145481</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>28.38174241947865</v>
+        <v>28.57333138275374</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.41055154334002</v>
+        <v>23.52346683290829</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>22.18677398877319</v>
+        <v>22.37953919616135</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21.21559398696903</v>
+        <v>20.68726028530666</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>4.134064777697555</v>
+        <v>4.57730947557171</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>2.596873306282178</v>
+        <v>2.902823687488916</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>3.919097095332511</v>
+        <v>4.107537010038827</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>2.583497203969448</v>
+        <v>2.610855028519882</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>35.49766407842686</v>
+        <v>35.35309470833718</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>31.8242669601972</v>
+        <v>31.50692875022205</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>29.37270776144826</v>
+        <v>29.81552018553547</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>28.78454954168899</v>
+        <v>28.71542539652847</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>15.46318056656778</v>
+        <v>16.15458628484914</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>12.49458587691074</v>
+        <v>11.81129712450028</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>19.16430265335787</v>
+        <v>20.24062867274151</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>12.57095183991197</v>
+        <v>11.94052666812921</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>10.92223143252023</v>
+        <v>11.02411372859008</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.939341318127544</v>
+        <v>7.946965844015515</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.210624880687211</v>
+        <v>6.019198787230337</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.38048614215987</v>
+        <v>5.551300211765263</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6575628620520878</v>
+        <v>0.6708886290369991</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.450530964919706</v>
+        <v>0.4552163767250047</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3769803006507586</v>
+        <v>0.3607494766376678</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2805285923302647</v>
+        <v>0.2992658211042737</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.01874186789384</v>
+        <v>15.04479262074141</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.89818826885875</v>
+        <v>12.01005796647031</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.0829435129325</v>
+        <v>9.990934673291294</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.908874792013938</v>
+        <v>9.115010414467042</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.020355664010662</v>
+        <v>1.026786945141245</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7596161742892913</v>
+        <v>0.7719865532977934</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6791909882820254</v>
+        <v>0.6768517602167102</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5367524765674108</v>
+        <v>0.5534048074701866</v>
       </c>
     </row>
     <row r="25">
